--- a/RXL_CErr.xlsx
+++ b/RXL_CErr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USBC Backup\_RXL\Development\LAMBDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USBC Backup\_RXL\Development\LAMBDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60E5464-6733-4509-9398-67F36084E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338DD218-6528-4E77-A4DF-BAD6CE90E72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C29E0D24-0EA8-4D41-8E06-9F040E158B6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C29E0D24-0EA8-4D41-8E06-9F040E158B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="CastError" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_OnOff">Lookups!$C$6:$C$7</definedName>
     <definedName name="_YesNo">Lookups!$C$3:$C$4</definedName>
-    <definedName name="RXL_CErr">_xlfn.LAMBDA(_xlpm.error_number,_xlfn.LET(_xlpm._err,_xlpm.error_number,_xlpm._inpChk,IF(NOT(ISNUMBER(_xlpm._err)),"#[Error: invalid input]",IF(OR(_xlpm._err&lt;1,AND(_xlpm._err&gt;14,_xlpm._err&lt;&gt;19),MOD(_xlpm._err,1)&lt;&gt;0),"#[Error: invalid input]","")),_xlpm._rtn,IF(ISERROR(MATCH(_xlpm._err,{1,2,3,4,5,6,7,8,13,14},0)),"#[Not supported]",CHOOSE(_xlpm._err,#NULL!,#DIV/0!,#VALUE!,CastError!#REF!,#NAME?,#NUM!,#N/A, #GETTING_DATA,,,,,_FV(_xlfn.LAMBDA(0),"a"),_xlfn.LAMBDA(0))),IF(_xlpm._inpChk&lt;&gt;"",_xlpm._inpChk,_xlpm._rtn)))</definedName>
+    <definedName name="RXL_CErr" comment="Returns a single chosen Excel error code (&quot;# value&quot;) within a worksheet formula">_xlfn.LAMBDA(_xlpm.error_number,_xlfn.LET(_xlpm._err,_xlpm.error_number,_xlpm._inpChk,IF(NOT(ISNUMBER(_xlpm._err)),"#[Error: invalid input]",IF(OR(_xlpm._err&lt;1,AND(_xlpm._err&gt;14,_xlpm._err&lt;&gt;19),MOD(_xlpm._err,1)&lt;&gt;0),"#[Error: invalid input]","")),_xlpm._rtn,IF(ISERROR(MATCH(_xlpm._err,{1,2,3,4,5,6,7,8,13,14},0)),"#[Not supported]",CHOOSE(_xlpm._err,#NULL!,#DIV/0!,#VALUE!,CastError!#REF!,#NAME?,#NUM!,#N/A, #GETTING_DATA,,,,,_FV(_xlfn.LAMBDA(0),"a"),_xlfn.LAMBDA(0))),IF(_xlpm._inpChk&lt;&gt;"",_xlpm._inpChk,_xlpm._rtn)))</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
@@ -136,6 +136,26 @@
     </bk>
   </valueMetadata>
 </metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1548,7 +1568,7 @@
     <cellStyle name="Output - SubTotal" xfId="68" xr:uid="{3944BA35-D861-48C8-BF5E-3B5A261E1A76}"/>
     <cellStyle name="Output - Text" xfId="69" xr:uid="{D8AED5B9-3D8F-49BF-8E7D-B2C435B0B345}"/>
     <cellStyle name="Output - Total" xfId="70" xr:uid="{4535EB24-0E67-4CEB-99CB-25A662CC9E57}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Ref.In - #" xfId="77" xr:uid="{559C5B78-8ABA-490F-9260-E150F46D7C2E}"/>
     <cellStyle name="Ref.In - %" xfId="78" xr:uid="{9969ACD6-D439-497E-923B-8A61EE2BE01D}"/>
     <cellStyle name="Ref.In - Date" xfId="79" xr:uid="{45F8383B-AD4B-47DA-8A10-4D43E8A4D81C}"/>
@@ -2116,20 +2136,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="41" t="s">
         <v>38</v>
       </c>
@@ -2142,27 +2162,27 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
@@ -2170,7 +2190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E12" s="15">
         <v>1</v>
       </c>
@@ -2178,7 +2198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E13" s="15">
         <v>2</v>
       </c>
@@ -2186,7 +2206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E14" s="15">
         <v>4</v>
       </c>
@@ -2194,7 +2214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E15" s="15">
         <v>16</v>
       </c>
@@ -2202,7 +2222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E16" s="15">
         <v>64</v>
       </c>
@@ -2210,7 +2230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E17" s="15">
         <v>128</v>
       </c>
@@ -2218,7 +2238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" s="10" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11">
         <f xml:space="preserve"> MAX(B$1:B18) + 1</f>
         <v>1</v>
@@ -2227,39 +2247,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C21" s="30" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D24" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D25" s="29">
         <v>9</v>
       </c>
@@ -2270,7 +2290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D26" s="29">
         <v>10</v>
       </c>
@@ -2281,7 +2301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D27" s="29">
         <v>11</v>
       </c>
@@ -2292,7 +2312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D28" s="29">
         <v>12</v>
       </c>
@@ -2303,7 +2323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D29" s="29">
         <v>19</v>
       </c>
@@ -2314,25 +2334,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C32" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="3:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D33" s="31" t="s">
         <v>5</v>
       </c>
@@ -2341,177 +2361,177 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="3:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D57" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D58" s="38" t="s">
         <v>61</v>
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D59" s="37" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D60" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D61" s="37" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D62" s="35" t="s">
         <v>3</v>
       </c>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D63" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F64" s="4"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D66" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D67" s="34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="2:6" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" s="10" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="11">
         <f xml:space="preserve"> MAX(B$1:B69) + 1</f>
         <v>2</v>
@@ -2520,7 +2540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D72" s="2" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D73" s="22">
         <v>1</v>
       </c>
@@ -2544,7 +2564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D74" s="22">
         <v>2</v>
       </c>
@@ -2557,7 +2577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D75" s="22">
         <v>3</v>
       </c>
@@ -2570,7 +2590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D76" s="22">
         <v>4</v>
       </c>
@@ -2583,7 +2603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D77" s="22">
         <v>5</v>
       </c>
@@ -2596,7 +2616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D78" s="22">
         <v>6</v>
       </c>
@@ -2609,7 +2629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D79" s="22">
         <v>7</v>
       </c>
@@ -2622,7 +2642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D80" s="22">
         <v>8</v>
       </c>
@@ -2635,7 +2655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D81" s="22">
         <v>9</v>
       </c>
@@ -2648,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D82" s="22">
         <v>10</v>
       </c>
@@ -2661,7 +2681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D83" s="22">
         <v>11</v>
       </c>
@@ -2674,7 +2694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D84" s="22">
         <v>12</v>
       </c>
@@ -2687,7 +2707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D85" s="22">
         <v>13</v>
       </c>
@@ -2700,7 +2720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D86" s="22">
         <v>14</v>
       </c>
@@ -2713,7 +2733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D87" s="22">
         <v>19</v>
       </c>
@@ -2726,7 +2746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D88" s="1">
         <v>0</v>
       </c>
@@ -2739,7 +2759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D89" s="1">
         <v>-1</v>
       </c>
@@ -2752,7 +2772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D90" s="17">
         <v>2.35</v>
       </c>
@@ -2765,7 +2785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D91" s="12">
         <v>18</v>
       </c>
@@ -2778,7 +2798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D92" s="12" t="s">
         <v>7</v>
       </c>
@@ -2791,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D93" s="12" t="s">
         <v>8</v>
       </c>
@@ -2804,7 +2824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D94" s="12" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2837,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="4:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="6" t="s">
         <v>13</v>
       </c>
@@ -2840,17 +2860,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.28515625" customWidth="1"/>
+    <col min="1" max="2" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="24">
         <v>1</v>
       </c>
@@ -2858,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="24">
         <v>0</v>
       </c>
@@ -2869,7 +2889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="24">
         <v>1</v>
       </c>
@@ -2877,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="24">
         <v>0</v>
       </c>
@@ -2888,8 +2908,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>

--- a/RXL_CErr.xlsx
+++ b/RXL_CErr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USBC Backup\_RXL\Development\LAMBDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338DD218-6528-4E77-A4DF-BAD6CE90E72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BD5B2B-6ECC-423C-973A-2FFA89648F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C29E0D24-0EA8-4D41-8E06-9F040E158B6C}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Error #</t>
   </si>
@@ -415,6 +415,12 @@
   <si>
     <t>Error Return (CreateError) function</t>
   </si>
+  <si>
+    <t>Gist URL:</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/r-silk/8ca0742d549ec4153d403b0a64847974</t>
+  </si>
 </sst>
 </file>
 
@@ -431,7 +437,7 @@
     <numFmt numFmtId="171" formatCode="&quot;On (1)&quot;;[Red]&quot;Err&quot;;&quot;Off (0)&quot;"/>
     <numFmt numFmtId="172" formatCode="&quot;Yes (1)&quot;;[Red]&quot;Err&quot;;&quot;No (0)&quot;"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF002138"/>
@@ -771,6 +777,14 @@
       <i/>
       <sz val="10"/>
       <color rgb="FF195C89"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1289,7 +1303,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1412,8 +1426,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="16" fillId="42" borderId="9" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1498,8 +1513,9 @@
     <xf numFmtId="0" fontId="25" fillId="33" borderId="15" xfId="10" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="90"/>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="91">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="34" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="37" builtinId="38" customBuiltin="1"/>
@@ -1542,6 +1558,7 @@
     <cellStyle name="Heading 2" xfId="8" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="9" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="10" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8"/>
     <cellStyle name="Inline Check" xfId="22" xr:uid="{E7FD4D4C-BE0C-4C66-90EF-C5205204C60E}"/>
     <cellStyle name="Input" xfId="1" builtinId="20" hidden="1"/>
     <cellStyle name="Input - #" xfId="59" xr:uid="{B8E537EE-A566-440F-A007-AA2FB5F9A9FB}"/>
@@ -2129,7 +2146,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0BDDC6-BC3B-4F1D-AEDE-0C506C7B8343}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:J97"/>
+  <dimension ref="B1:J100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2531,98 +2548,73 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="2:6" s="10" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="11">
-        <f xml:space="preserve"> MAX(B$1:B69) + 1</f>
+    <row r="69" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D69" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D70" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="73" spans="2:6" s="10" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="11">
+        <f xml:space="preserve"> MAX(B$1:B71) + 1</f>
         <v>2</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D72" s="2" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D73" s="22">
-        <v>1</v>
-      </c>
-      <c r="E73" s="23" t="e" cm="1">
-        <f t="array" ref="E73" xml:space="preserve"> RXL_CErr(D73)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="F73" s="22">
-        <f xml:space="preserve"> TYPE(E73)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D74" s="22">
-        <v>2</v>
-      </c>
-      <c r="E74" s="23" t="e" cm="1">
-        <f t="array" ref="E74" xml:space="preserve"> RXL_CErr(D74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F74" s="22">
-        <f t="shared" ref="F74:F88" si="0" xml:space="preserve"> TYPE(E74)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D75" s="22">
-        <v>3</v>
-      </c>
-      <c r="E75" s="23" t="e" cm="1">
-        <f t="array" ref="E75" xml:space="preserve"> RXL_CErr(D75)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F75" s="22">
-        <f t="shared" si="0"/>
-        <v>16</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D76" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E76" s="23" t="e" cm="1">
         <f t="array" ref="E76" xml:space="preserve"> RXL_CErr(D76)</f>
-        <v>#REF!</v>
+        <v>#NULL!</v>
       </c>
       <c r="F76" s="22">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> TYPE(E76)</f>
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D77" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E77" s="23" t="e" cm="1">
         <f t="array" ref="E77" xml:space="preserve"> RXL_CErr(D77)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F77" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F77:F91" si="0" xml:space="preserve"> TYPE(E77)</f>
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D78" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E78" s="23" t="e" cm="1">
         <f t="array" ref="E78" xml:space="preserve"> RXL_CErr(D78)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F78" s="22">
         <f t="shared" si="0"/>
@@ -2631,11 +2623,11 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D79" s="22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E79" s="23" t="e" cm="1">
         <f t="array" ref="E79" xml:space="preserve"> RXL_CErr(D79)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="F79" s="22">
         <f t="shared" si="0"/>
@@ -2644,11 +2636,11 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D80" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E80" s="23" t="e" cm="1">
         <f t="array" ref="E80" xml:space="preserve"> RXL_CErr(D80)</f>
-        <v>#N/A</v>
+        <v>#NAME?</v>
       </c>
       <c r="F80" s="22">
         <f t="shared" si="0"/>
@@ -2657,46 +2649,46 @@
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D81" s="22">
-        <v>9</v>
-      </c>
-      <c r="E81" s="23" t="str" cm="1">
+        <v>6</v>
+      </c>
+      <c r="E81" s="23" t="e" cm="1">
         <f t="array" ref="E81" xml:space="preserve"> RXL_CErr(D81)</f>
-        <v>#[Not supported]</v>
+        <v>#NUM!</v>
       </c>
       <c r="F81" s="22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D82" s="22">
-        <v>10</v>
-      </c>
-      <c r="E82" s="23" t="str" cm="1">
+        <v>7</v>
+      </c>
+      <c r="E82" s="23" t="e" cm="1">
         <f t="array" ref="E82" xml:space="preserve"> RXL_CErr(D82)</f>
-        <v>#[Not supported]</v>
+        <v>#N/A</v>
       </c>
       <c r="F82" s="22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D83" s="22">
-        <v>11</v>
-      </c>
-      <c r="E83" s="23" t="str" cm="1">
+        <v>8</v>
+      </c>
+      <c r="E83" s="23" t="e" cm="1">
         <f t="array" ref="E83" xml:space="preserve"> RXL_CErr(D83)</f>
-        <v>#[Not supported]</v>
+        <v>#N/A</v>
       </c>
       <c r="F83" s="22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D84" s="22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E84" s="23" t="str" cm="1">
         <f t="array" ref="E84" xml:space="preserve"> RXL_CErr(D84)</f>
@@ -2709,33 +2701,33 @@
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D85" s="22">
-        <v>13</v>
-      </c>
-      <c r="E85" s="23" t="e" cm="1" vm="6">
+        <v>10</v>
+      </c>
+      <c r="E85" s="23" t="str" cm="1">
         <f t="array" ref="E85" xml:space="preserve"> RXL_CErr(D85)</f>
-        <v>#VALUE!</v>
+        <v>#[Not supported]</v>
       </c>
       <c r="F85" s="22">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D86" s="22">
-        <v>14</v>
-      </c>
-      <c r="E86" s="23" t="e" cm="1" vm="7">
+        <v>11</v>
+      </c>
+      <c r="E86" s="23" t="str" cm="1">
         <f t="array" ref="E86" xml:space="preserve"> RXL_CErr(D86)</f>
-        <v>#VALUE!</v>
+        <v>#[Not supported]</v>
       </c>
       <c r="F86" s="22">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D87" s="22">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E87" s="23" t="str" cm="1">
         <f t="array" ref="E87" xml:space="preserve"> RXL_CErr(D87)</f>
@@ -2747,106 +2739,148 @@
       </c>
     </row>
     <row r="88" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D88" s="1">
-        <v>0</v>
-      </c>
-      <c r="E88" s="21" t="str" cm="1">
+      <c r="D88" s="22">
+        <v>13</v>
+      </c>
+      <c r="E88" s="23" t="e" cm="1" vm="6">
         <f t="array" ref="E88" xml:space="preserve"> RXL_CErr(D88)</f>
-        <v>#[Error: invalid input]</v>
-      </c>
-      <c r="F88" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F88" s="22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D89" s="22">
+        <v>14</v>
+      </c>
+      <c r="E89" s="23" t="e" cm="1" vm="7">
+        <f t="array" ref="E89" xml:space="preserve"> RXL_CErr(D89)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D90" s="22">
+        <v>19</v>
+      </c>
+      <c r="E90" s="23" t="str" cm="1">
+        <f t="array" ref="E90" xml:space="preserve"> RXL_CErr(D90)</f>
+        <v>#[Not supported]</v>
+      </c>
+      <c r="F90" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D89" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E89" s="21" t="str" cm="1">
-        <f t="array" ref="E89" xml:space="preserve"> RXL_CErr(D89)</f>
-        <v>#[Error: invalid input]</v>
-      </c>
-      <c r="F89" s="1">
-        <f t="shared" ref="F89:F92" si="1" xml:space="preserve"> TYPE(E89)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D90" s="17">
-        <v>2.35</v>
-      </c>
-      <c r="E90" s="13" t="str" cm="1">
-        <f t="array" ref="E90" xml:space="preserve"> RXL_CErr(D90)</f>
-        <v>#[Error: invalid input]</v>
-      </c>
-      <c r="F90" s="12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
     <row r="91" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D91" s="12">
-        <v>18</v>
-      </c>
-      <c r="E91" s="13" t="str" cm="1">
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="21" t="str" cm="1">
         <f t="array" ref="E91" xml:space="preserve"> RXL_CErr(D91)</f>
         <v>#[Error: invalid input]</v>
       </c>
-      <c r="F91" s="12">
-        <f t="shared" si="1"/>
+      <c r="F91" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D92" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="13" t="str" cm="1">
+      <c r="D92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E92" s="21" t="str" cm="1">
         <f t="array" ref="E92" xml:space="preserve"> RXL_CErr(D92)</f>
         <v>#[Error: invalid input]</v>
       </c>
-      <c r="F92" s="12">
-        <f t="shared" si="1"/>
+      <c r="F92" s="1">
+        <f t="shared" ref="F92:F95" si="1" xml:space="preserve"> TYPE(E92)</f>
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D93" s="12" t="s">
-        <v>8</v>
+      <c r="D93" s="17">
+        <v>2.35</v>
       </c>
       <c r="E93" s="13" t="str" cm="1">
         <f t="array" ref="E93" xml:space="preserve"> RXL_CErr(D93)</f>
         <v>#[Error: invalid input]</v>
       </c>
       <c r="F93" s="12">
-        <f xml:space="preserve"> TYPE(E93)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D94" s="12" t="s">
-        <v>42</v>
+      <c r="D94" s="12">
+        <v>18</v>
       </c>
       <c r="E94" s="13" t="str" cm="1">
         <f t="array" ref="E94" xml:space="preserve"> RXL_CErr(D94)</f>
         <v>#[Error: invalid input]</v>
       </c>
       <c r="F94" s="12">
-        <f xml:space="preserve"> TYPE(E94)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="4:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="6" t="s">
+    <row r="95" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D95" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="13" t="str" cm="1">
+        <f t="array" ref="E95" xml:space="preserve"> RXL_CErr(D95)</f>
+        <v>#[Error: invalid input]</v>
+      </c>
+      <c r="F95" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D96" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="13" t="str" cm="1">
+        <f t="array" ref="E96" xml:space="preserve"> RXL_CErr(D96)</f>
+        <v>#[Error: invalid input]</v>
+      </c>
+      <c r="F96" s="12">
+        <f xml:space="preserve"> TYPE(E96)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D97" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" s="13" t="str" cm="1">
+        <f t="array" ref="E97" xml:space="preserve"> RXL_CErr(D97)</f>
+        <v>#[Error: invalid input]</v>
+      </c>
+      <c r="F97" s="12">
+        <f xml:space="preserve"> TYPE(E97)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D70" r:id="rId1" xr:uid="{56E1F299-1EAC-4308-8BE7-031517A1499A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
